--- a/progralineal/Code/metodo_simplex/EjemploSimplex.xlsx
+++ b/progralineal/Code/metodo_simplex/EjemploSimplex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heinz\Documents\UFM\PL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_1\progralineal\Code\metodo_simplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0927DD6B-6D4B-485F-A938-40534E0915B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DFE1D-52D3-4E2D-8752-06B02AA1D176}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4E6C1285-5CD5-438E-ACB0-23DF84545B09}"/>
+    <workbookView xWindow="13320" yWindow="960" windowWidth="13755" windowHeight="11355" xr2:uid="{4E6C1285-5CD5-438E-ACB0-23DF84545B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,6 @@
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="129">
   <si>
     <t>Max z= A + 2B</t>
   </si>
@@ -459,6 +458,15 @@
   </si>
   <si>
     <t>Coef&lt;0 no se toma en cuenta</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -627,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -641,9 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -661,11 +666,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,7 +1380,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1661,102 +1676,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A08B03C-BC03-43D3-9E48-6D901A15E87C}">
-  <dimension ref="G3:R45"/>
+  <dimension ref="G3:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="87" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="13" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="H3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="H4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="H3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="H4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="H9" s="25" t="s">
+    <row r="9" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="H9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="11" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G11" s="13" t="s">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="11" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="G11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="W11" s="16">
+        <f>MIN(U13:W13)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1787,8 +1806,41 @@
       <c r="P12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G13" s="2">
         <v>0</v>
       </c>
@@ -1811,8 +1863,41 @@
       <c r="P13" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="29">
+        <v>-2</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G14" s="2">
         <v>1</v>
       </c>
@@ -1838,12 +1923,44 @@
       <c r="Q14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="25">
         <f>21/4</f>
         <v>5.25</v>
       </c>
-    </row>
-    <row r="15" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="30">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD14" s="2">
+        <f>AB14/W14</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="15" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G15" s="2">
         <v>2</v>
       </c>
@@ -1872,8 +1989,40 @@
       <c r="R15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T15" s="2">
+        <v>2</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="9">
+        <v>2</v>
+      </c>
+      <c r="W15" s="31">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD15" s="2">
+        <f>AB15/W15</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G16" s="2">
         <v>3</v>
       </c>
@@ -1903,8 +2052,40 @@
         <f>21/1.5</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T16" s="2">
+        <v>3</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="3">
+        <v>3</v>
+      </c>
+      <c r="W16" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD16" s="2">
+        <f>AB16/W16</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G17" s="2">
         <v>4</v>
       </c>
@@ -1930,18 +2111,116 @@
       <c r="Q17" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T17" s="2">
+        <v>4</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="3">
+        <v>-2</v>
+      </c>
+      <c r="W17" s="31">
+        <v>6</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="2">
+        <f>AB17/W17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD19" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="33">
+        <v>-2</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1972,81 +2251,155 @@
       <c r="P21" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <f>U14/$W$14</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" ref="V21:AB21" si="0">V14/$W$14</f>
+        <v>0.25</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD21" s="2">
+        <f>AB21/W21</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="22" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <f>H13+2*H23</f>
         <v>1</v>
       </c>
-      <c r="I22" s="14">
-        <f t="shared" ref="I22:O22" si="0">I13+2*I23</f>
+      <c r="I22" s="13">
+        <f t="shared" ref="I22:O22" si="1">I13+2*I23</f>
         <v>-0.5</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <f t="shared" si="0"/>
+      <c r="J22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="15">
-        <f t="shared" si="0"/>
+      <c r="L22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T22" s="2">
+        <v>2</v>
+      </c>
+      <c r="U22" s="2"/>
+      <c r="V22" s="9">
+        <v>2</v>
+      </c>
+      <c r="W22" s="34">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD22" s="2">
+        <f>AB22/W22</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <f>H14/4</f>
         <v>0</v>
       </c>
-      <c r="I23" s="15">
-        <f t="shared" ref="I23:O23" si="1">I14/4</f>
+      <c r="I23" s="14">
+        <f t="shared" ref="I23:O23" si="2">I14/4</f>
         <v>0.25</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="1"/>
+      <c r="J23" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="L23" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="15">
-        <f t="shared" si="1"/>
+      <c r="L23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
       <c r="P23" s="3" t="s">
@@ -2056,129 +2409,193 @@
         <f>O23/I23</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T23" s="2">
+        <v>3</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="3">
+        <v>3</v>
+      </c>
+      <c r="W23" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD23" s="2">
+        <f>AB23/W23</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G24" s="2">
         <v>2</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <f>H15-H23</f>
         <v>0</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" ref="I24:O24" si="2">I15-I23</f>
+        <f t="shared" ref="I24:O24" si="3">I15-I23</f>
         <v>1.75</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="2"/>
+      <c r="J24" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
-      <c r="L24" s="15">
-        <f t="shared" si="2"/>
+      <c r="L24" s="14">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M24" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="15">
-        <f t="shared" si="2"/>
+      <c r="M24" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="27">
-        <f t="shared" ref="R24:R26" si="3">O24/I24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="25">
+        <f t="shared" ref="R24:R25" si="4">O24/I24</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
+        <v>4</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="3">
+        <v>-2</v>
+      </c>
+      <c r="W24" s="34">
+        <v>6</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD24" s="2">
+        <f>AB24/W24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G25" s="2">
         <v>3</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <f>H16-$J$16*H23</f>
         <v>0</v>
       </c>
-      <c r="I25" s="15">
-        <f t="shared" ref="I25:O25" si="4">I16-$J$16*I23</f>
+      <c r="I25" s="14">
+        <f t="shared" ref="I25:O25" si="5">I16-$J$16*I23</f>
         <v>2.625</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" si="4"/>
+      <c r="J25" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="5"/>
         <v>-0.375</v>
       </c>
-      <c r="L25" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="15">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="15">
-        <f t="shared" si="4"/>
+      <c r="L25" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="5"/>
         <v>13.125</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>39</v>
       </c>
       <c r="R25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <f>H17-$J$17*H23</f>
         <v>0</v>
       </c>
-      <c r="I26" s="15">
-        <f t="shared" ref="I26:O26" si="5">I17-$J$17*I23</f>
+      <c r="I26" s="14">
+        <f t="shared" ref="I26:O26" si="6">I17-$J$17*I23</f>
         <v>-3.5</v>
       </c>
-      <c r="J26" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" si="5"/>
+      <c r="J26" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="6"/>
         <v>-1.5</v>
       </c>
-      <c r="L26" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="15">
-        <f t="shared" si="5"/>
+      <c r="L26" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="O26" s="15">
-        <f t="shared" si="5"/>
+      <c r="O26" s="14">
+        <f t="shared" si="6"/>
         <v>-31.5</v>
       </c>
       <c r="P26" s="9" t="s">
@@ -2187,25 +2604,277 @@
       <c r="Q26" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <f>U20+2*U28</f>
+        <v>1</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" ref="V27:AB27" si="7">V20+2*V28</f>
+        <v>-0.5</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" si="7"/>
+        <v>10.5</v>
+      </c>
+      <c r="AC27" s="2">
+        <f>ABS(AB27)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T28" s="2">
+        <v>1</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="W28" s="2">
+        <v>1</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" ref="AC28:AC31" si="8">ABS(AB28)</f>
+        <v>5.25</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T29" s="2">
+        <v>2</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" ref="U29:V29" si="9">U22-U28</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="9"/>
+        <v>1.75</v>
+      </c>
+      <c r="W29" s="2">
+        <f>W22-W28</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" ref="X29:AB29" si="10">X22-X28</f>
+        <v>-0.25</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="10"/>
+        <v>1.75</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>7</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="T30" s="2">
+        <v>3</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" ref="U30:V30" si="11">U23-$W$23*U28</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="11"/>
+        <v>2.625</v>
+      </c>
+      <c r="W30" s="2">
+        <f>W23-$W$23*W28</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" ref="X30:AB30" si="12">X23-$W$23*X28</f>
+        <v>-0.375</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" si="12"/>
+        <v>13.125</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="8"/>
+        <v>13.125</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>14</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G31" s="10" t="s">
         <v>31</v>
+      </c>
+      <c r="T31" s="2">
+        <v>4</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" ref="U31:V31" si="13">U24-$W$24*U28</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="13"/>
+        <v>-3.5</v>
+      </c>
+      <c r="W31" s="2">
+        <f>W24-$W$24*W28</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
+        <f t="shared" ref="X31:AB31" si="14">X24-$W$24*X28</f>
+        <v>-1.5</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="14"/>
+        <v>-31.5</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" si="8"/>
+        <v>31.5</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="7:17" x14ac:dyDescent="0.25">
@@ -2249,31 +2918,31 @@
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34:O34" si="6">I22-$I$22*I36</f>
+        <f t="shared" ref="I34:O34" si="15">I22-$I$22*I36</f>
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.4285714285714286</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-0.2857142857142857</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="P34" s="9" t="s">
@@ -2289,31 +2958,31 @@
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" ref="I35:O35" si="7">I23-$I$23*I36</f>
+        <f t="shared" ref="I35:O35" si="16">I23-$I$23*I36</f>
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="P35" s="9" t="s">
@@ -2333,31 +3002,31 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" ref="I36:O36" si="8">I24/$I$24</f>
+        <f t="shared" ref="I36:O36" si="17">I24/$I$24</f>
         <v>1</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-0.14285714285714285</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-0.5714285714285714</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P36" s="3" t="s">
@@ -2376,38 +3045,38 @@
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" ref="I37:O37" si="9">I25-$I$25*I36</f>
+        <f t="shared" ref="I37:O37" si="18">I25-$I$25*I36</f>
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>10.5</v>
       </c>
       <c r="P37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q37" s="26">
-        <f t="shared" ref="Q37" si="10">O37/L37</f>
+      <c r="Q37" s="24">
+        <f t="shared" ref="Q37" si="19">O37/L37</f>
         <v>7</v>
       </c>
     </row>
@@ -2420,31 +3089,31 @@
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" ref="I38:O38" si="11">I26-$I$26*I36</f>
+        <f t="shared" ref="I38:O38" si="20">I26-$I$26*I36</f>
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>-2</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>-2</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>-28</v>
       </c>
       <c r="P38" s="9" t="s">
@@ -2488,36 +3157,36 @@
       <c r="G41" s="2">
         <v>0</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="15">
         <f>H34-$L$34*H44</f>
         <v>1</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" ref="I41:O41" si="12">I34-$L$34*I44</f>
+        <f t="shared" ref="I41:O41" si="21">I34-$L$34*I44</f>
         <v>0</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.4285714285714286</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="P41" s="9" t="s">
@@ -2533,31 +3202,31 @@
         <v>0</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" ref="I42:O42" si="13">I35-$L$35*I44</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I42:O42" si="22">I35-$L$35*I44</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>-9.5238095238095233E-2</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="P42" s="9" t="s">
@@ -2572,32 +3241,32 @@
         <f>H36-$L$36*H44</f>
         <v>0</v>
       </c>
-      <c r="I43" s="16">
-        <f t="shared" ref="I43:O43" si="14">I36-$L$36*I44</f>
+      <c r="I43" s="15">
+        <f t="shared" ref="I43:O43" si="23">I36-$L$36*I44</f>
         <v>1</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>-0.14285714285714285</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0.38095238095238093</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O43" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="P43" s="9" t="s">
@@ -2613,31 +3282,31 @@
         <v>0</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" ref="I44:O44" si="15">I37/$L$37</f>
+        <f t="shared" ref="I44:O44" si="24">I37/$L$37</f>
         <v>0</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="P44" s="9" t="s">
@@ -2653,31 +3322,31 @@
         <v>0</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" ref="I45:O45" si="16">I38-$L$38*I44</f>
+        <f t="shared" ref="I45:O45" si="25">I38-$L$38*I44</f>
         <v>0</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>-2</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="N45" s="16">
-        <f t="shared" si="16"/>
+      <c r="N45" s="15">
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="O45" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>-14</v>
       </c>
       <c r="P45" s="9" t="s">
@@ -2707,7 +3376,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -2719,50 +3388,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2782,30 +3451,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>3</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>13</v>
       </c>
     </row>
@@ -2815,53 +3484,53 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="21">
         <v>5</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="21">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21">
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20">
         <v>4</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="17" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2871,102 +3540,102 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>21</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>14</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>21</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>14</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="20">
         <v>14</v>
       </c>
     </row>
@@ -2982,7 +3651,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -2994,17 +3663,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3014,90 +3683,90 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>5</v>
       </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
         <v>3.0000000000000004</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>0.49999999999999983</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>4</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
         <v>2</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>2.0000000000000004</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>1.5000000000000002</v>
       </c>
     </row>
@@ -3107,136 +3776,136 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>21</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>0.4285714285714286</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>21</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>35</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>7.0000000000000018</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>14</v>
       </c>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
         <v>7</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>7</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>1E+30</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>21</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>0.19047619047619041</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>21</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>10.500000000000005</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>10.5</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>14</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
         <v>14.000000000000004</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>1E+30</v>
       </c>
     </row>
@@ -3253,7 +3922,7 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
@@ -3268,136 +3937,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>5</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>1.5</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>9.5</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="21">
         <v>5</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>4</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>1.6666666666666665</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>8.3333333333333321</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>3.9999999999999996</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>13</v>
       </c>
     </row>
@@ -3414,7 +4083,7 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
